--- a/models/hate_detection/results.xlsx
+++ b/models/hate_detection/results.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>config</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>{'text_max_len': 50, 'char_max_len': 200, 'word_char_max_len': 20, 'n_units': 128, 'emb_dim': 128, 'n_layers': 2, 'epochs': 500, 'learning_rate': 0.001, 'model_name': 'Transformer', 'loss': 'focal', 'use_features': False}</t>
+  </si>
+  <si>
+    <t>{'text_max_len': 50, 'char_max_len': 100, 'word_char_max_len': 20, 'n_units': 128, 'emb_dim': 128, 'n_layers': 2, 'epochs': 500, 'learning_rate': 0.001, 'model_name': 'WLSTM', 'loss': 'ce', 'use_features': True}</t>
+  </si>
+  <si>
+    <t>{'text_max_len': 50, 'char_max_len': 100, 'word_char_max_len': 20, 'n_units': 128, 'emb_dim': 128, 'n_layers': 2, 'epochs': 500, 'learning_rate': 0.001, 'model_name': 'WLSTM', 'loss': 'ce', 'use_features': False}</t>
   </si>
 </sst>
 </file>
@@ -158,7 +164,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="97.29"/>
+    <col customWidth="1" min="1" max="1" width="156.86"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -235,7 +241,7 @@
         <v>0.93886462882096</v>
       </c>
       <c r="C7" s="1">
-        <v>0.927987421383648</v>
+        <v>0.927987421383647</v>
       </c>
     </row>
     <row r="8">
@@ -246,7 +252,7 @@
         <v>0.931815075070964</v>
       </c>
       <c r="C8" s="1">
-        <v>0.919117688946615</v>
+        <v>0.919117688946616</v>
       </c>
     </row>
     <row r="9">
@@ -433,7 +439,7 @@
         <v>0.936352550568874</v>
       </c>
       <c r="C25" s="1">
-        <v>0.924651822436533</v>
+        <v>0.924651822436534</v>
       </c>
     </row>
     <row r="26">
@@ -466,7 +472,29 @@
         <v>0.920029940425276</v>
       </c>
       <c r="C28" s="1">
-        <v>0.906826116838487</v>
+        <v>0.906826116838488</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.917352297967785</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.903035300410055</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.916862162622368</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.901874111995669</v>
       </c>
     </row>
   </sheetData>
